--- a/přepočet na dvojkovou soustavu.xlsx
+++ b/přepočet na dvojkovou soustavu.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jakub\Desktop\RPA_semestralka\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{5F594932-11EF-4DA6-BDB2-1F25D3BAE7E5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F512D8C-C82A-4C2E-BDA2-1BEAD0512EED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15472"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="28800" windowHeight="15472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -529,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:S5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:X23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X23" sqref="X23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -546,7 +546,7 @@
     <col min="18" max="18" width="6.59765625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="K1" s="13" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="4">
         <v>16</v>
       </c>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:24" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="8">
         <f t="shared" ref="B3:Q3" si="0">2^(B2)</f>
         <v>65536</v>
@@ -695,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B4" s="10">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:24" x14ac:dyDescent="0.45">
       <c r="B5" s="7">
         <f t="shared" ref="B5:Q5" si="1">B3*B4</f>
         <v>0</v>
@@ -820,6 +820,162 @@
       <c r="S5" s="12">
         <f>SUM(B5:R5)</f>
         <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V11">
+        <v>16777216</v>
+      </c>
+      <c r="W11">
+        <v>74</v>
+      </c>
+      <c r="X11">
+        <f>V11+W11</f>
+        <v>16777290</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V12">
+        <v>16777216</v>
+      </c>
+      <c r="W12">
+        <v>202</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X23" si="2">V12+W12</f>
+        <v>16777418</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V13">
+        <v>16777216</v>
+      </c>
+      <c r="W13">
+        <v>170</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="2"/>
+        <v>16777386</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V14">
+        <v>16777216</v>
+      </c>
+      <c r="W14">
+        <v>186</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="2"/>
+        <v>16777402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V15">
+        <v>16777216</v>
+      </c>
+      <c r="W15">
+        <v>182</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="2"/>
+        <v>16777398</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.45">
+      <c r="V16">
+        <v>16777216</v>
+      </c>
+      <c r="W16">
+        <v>186</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="2"/>
+        <v>16777402</v>
+      </c>
+    </row>
+    <row r="17" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V17">
+        <v>16777216</v>
+      </c>
+      <c r="W17">
+        <v>185</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="2"/>
+        <v>16777401</v>
+      </c>
+    </row>
+    <row r="18" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V18">
+        <v>16777216</v>
+      </c>
+      <c r="W18">
+        <v>181</v>
+      </c>
+      <c r="X18">
+        <f t="shared" si="2"/>
+        <v>16777397</v>
+      </c>
+    </row>
+    <row r="19" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V19">
+        <v>16777216</v>
+      </c>
+      <c r="W19">
+        <v>185</v>
+      </c>
+      <c r="X19">
+        <f t="shared" si="2"/>
+        <v>16777401</v>
+      </c>
+    </row>
+    <row r="20" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V20">
+        <v>16777216</v>
+      </c>
+      <c r="W20">
+        <v>169</v>
+      </c>
+      <c r="X20">
+        <f t="shared" si="2"/>
+        <v>16777385</v>
+      </c>
+    </row>
+    <row r="21" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V21">
+        <v>16777216</v>
+      </c>
+      <c r="W21">
+        <v>170</v>
+      </c>
+      <c r="X21">
+        <f t="shared" si="2"/>
+        <v>16777386</v>
+      </c>
+    </row>
+    <row r="22" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V22">
+        <v>16777216</v>
+      </c>
+      <c r="W22">
+        <v>202</v>
+      </c>
+      <c r="X22">
+        <f t="shared" si="2"/>
+        <v>16777418</v>
+      </c>
+    </row>
+    <row r="23" spans="22:24" x14ac:dyDescent="0.45">
+      <c r="V23">
+        <v>16777216</v>
+      </c>
+      <c r="W23">
+        <v>74</v>
+      </c>
+      <c r="X23">
+        <f t="shared" si="2"/>
+        <v>16777290</v>
       </c>
     </row>
   </sheetData>
